--- a/biology/Zoologie/Eothyrididae/Eothyrididae.xlsx
+++ b/biology/Zoologie/Eothyrididae/Eothyrididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eothyrididae forment une petite famille éteinte de synapsides insectivores très primitifs. Seuls deux genres sont connus, Eothyris et Oedaleops (en), tous deux du Permien inférieur d'Amérique du Nord (Cisuralien, 295 à 290 millions d'années avant notre ère). Leur principal trait distinctif est la grande dent caniniforme sur leur maxillaire supérieur.
 Ils partagent avec les Caseidae un certain nombre de traits spécialisés associés à la morphologie du museau et des narines externes, et il est probable qu'ils en sont les ancêtres. Réunis, ces deux groupes forment le clade des Caseasauria.
